--- a/Systems Analysis I/WEEK 2/RequirementAssignment.xlsx
+++ b/Systems Analysis I/WEEK 2/RequirementAssignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2-COLLEGE-\YR4_TERM-3\Systems Analysis I\WEEK 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3567A-9663-4A15-8B8D-76FCE8A78E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A4BB5-9A0A-4F20-9F84-3DE528C5E250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="735" windowWidth="16950" windowHeight="14505" xr2:uid="{D08CB3B2-E41F-4844-849D-38365C651C12}"/>
+    <workbookView xWindow="-27540" yWindow="105" windowWidth="27300" windowHeight="14505" xr2:uid="{D08CB3B2-E41F-4844-849D-38365C651C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="124">
   <si>
     <t>APC FUNCTIONAL REQUIREMENTS</t>
   </si>
@@ -148,6 +148,264 @@
   </si>
   <si>
     <t>RQID030</t>
+  </si>
+  <si>
+    <t>Account Clerk</t>
+  </si>
+  <si>
+    <t>auto matically update ledger card with invoice updates</t>
+  </si>
+  <si>
+    <t>I have more time to review important information that is on the ledger cards</t>
+  </si>
+  <si>
+    <t>credit request forms to automatically file themselves</t>
+  </si>
+  <si>
+    <t>I can review them and update corrisponding record information</t>
+  </si>
+  <si>
+    <t>receipts and banking schedule to automatically update to the ledger card</t>
+  </si>
+  <si>
+    <t>They can be viewed by multiple people in the office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have statements automatically compile from the ledger cards </t>
+  </si>
+  <si>
+    <t>I can finish them in time to have them reviewed</t>
+  </si>
+  <si>
+    <t>all invoices and check payments to be electronic</t>
+  </si>
+  <si>
+    <t>They are more secure and can be added as receipts more easily</t>
+  </si>
+  <si>
+    <t>All authors to have electronic ledger cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They can be viewed by multiple people in the office, and be kept track of more easily. </t>
+  </si>
+  <si>
+    <t>Goods &amp; Dispatch Clerk</t>
+  </si>
+  <si>
+    <t>A inbound received electronic service</t>
+  </si>
+  <si>
+    <t>All documentations and records of inbound items can be tracked and passed on faster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a electronic service for all book orders </t>
+  </si>
+  <si>
+    <t>They are automatically added to a list of requests and then added to an approved list.</t>
+  </si>
+  <si>
+    <t>have a electronic list of all books with the current stock</t>
+  </si>
+  <si>
+    <t>I can know what is in stock and fill out dispatch order more quickly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have an alert when books are out of stock </t>
+  </si>
+  <si>
+    <t>It will be passed to Sue more quickly without having to print out a request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a electronic summary of all orders, distpatches, and stock </t>
+  </si>
+  <si>
+    <t>I can prepare a summary for Dinah and a advance order summary for Sue.</t>
+  </si>
+  <si>
+    <t>Marketing, Sales &amp; Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a electronic marketing plan filled with relevant information </t>
+  </si>
+  <si>
+    <t>it can be passed to alan for conformation of dates</t>
+  </si>
+  <si>
+    <t>have a list of all advertising providers organized by interest</t>
+  </si>
+  <si>
+    <t>there wont be any lack of advertising because of late agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadlines for prints and advertising can achieved </t>
+  </si>
+  <si>
+    <t>have a list of printers that have worked effeciently in the past with costs</t>
+  </si>
+  <si>
+    <t>have all page proofs sent to me after SIBN numbers have been added</t>
+  </si>
+  <si>
+    <t>they can be confermed to work and be correct</t>
+  </si>
+  <si>
+    <t>have all page proofs electronic so they can be distributed to multiple people in the office including alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everyone can have updated information all the time to pass on to inportant parties like printers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to have all order and information from john sent to me electronically </t>
+  </si>
+  <si>
+    <t>I can create a monthly summary report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a list of interested outlets for sales/promotions </t>
+  </si>
+  <si>
+    <t>I can add them to book deals if nessasary</t>
+  </si>
+  <si>
+    <t>Publishing Program Manager</t>
+  </si>
+  <si>
+    <t>have a electronic publishing schedule</t>
+  </si>
+  <si>
+    <t>everyone can have access to the dates all the time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have request sent to me about added new books to the publication schedule </t>
+  </si>
+  <si>
+    <t>I don’t have to do it manually</t>
+  </si>
+  <si>
+    <t>have built in stages to the electronic publishing schedule</t>
+  </si>
+  <si>
+    <t>each publication is alotted the proper amount of time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have notices sent to me by other team members when a stage is complete </t>
+  </si>
+  <si>
+    <t>it can be check off of the schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have formal author sign offs </t>
+  </si>
+  <si>
+    <t>everything can be approved properly by the author and we know it has been</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a electronic file for each publication with its illustrations and art materials </t>
+  </si>
+  <si>
+    <t>it can be sent and checked more efficently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create electronic filling systems for each publication with its intial cost estimate </t>
+  </si>
+  <si>
+    <t>they can be prepared for the monthly report in the management meeting</t>
+  </si>
+  <si>
+    <t>Collective member</t>
+  </si>
+  <si>
+    <t>have a full manuscript packet with author information as well as other summary</t>
+  </si>
+  <si>
+    <t>when reviewing I can make more informed descisions</t>
+  </si>
+  <si>
+    <t>keep track of author changes for each manuscript submission</t>
+  </si>
+  <si>
+    <t>the changes can be kept track of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have sales analysis reports made for each manuscript </t>
+  </si>
+  <si>
+    <t>I can assess there marketability and value better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have electronic manuscipts </t>
+  </si>
+  <si>
+    <t>they can be sent and received more easily without postage</t>
+  </si>
+  <si>
+    <t>RQID031</t>
+  </si>
+  <si>
+    <t>RQID032</t>
+  </si>
+  <si>
+    <t>RQID033</t>
+  </si>
+  <si>
+    <t>RQID034</t>
+  </si>
+  <si>
+    <t>RQID035</t>
+  </si>
+  <si>
+    <t>Contract &amp; Office manager</t>
+  </si>
+  <si>
+    <t>have all contracts in electronic form</t>
+  </si>
+  <si>
+    <t>they can be sent and received more easily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have all contracts organized by requirements </t>
+  </si>
+  <si>
+    <t>I can prepare them for signing by the author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have all monthly financial information electronic </t>
+  </si>
+  <si>
+    <t>I can prepare reports for dinah faster and more efficently</t>
+  </si>
+  <si>
+    <t>have all debt, credit,  and royaltie infromation inserted into the electronic finanical information</t>
+  </si>
+  <si>
+    <t>Receptionist/Secretary</t>
+  </si>
+  <si>
+    <t>have all manuscripts come in electronically</t>
+  </si>
+  <si>
+    <t>I can send simple emails to all staff involved</t>
+  </si>
+  <si>
+    <t>have a electronic list for all incoming manuscripts</t>
+  </si>
+  <si>
+    <t>they can be kept track of when they are received and then sent out</t>
+  </si>
+  <si>
+    <t>RQID036</t>
+  </si>
+  <si>
+    <t>have a electronic list for all incoming and outgoing banking informaiton</t>
+  </si>
+  <si>
+    <t>RQID037</t>
+  </si>
+  <si>
+    <t>see all contracts electronically or duplicated with the offical copy with me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they can be passed around the office and kept track off </t>
   </si>
 </sst>
 </file>
@@ -520,18 +778,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A065B98A-BA0F-429C-A7D8-0117EA2CE524}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="93.28515625" customWidth="1"/>
+    <col min="7" max="7" width="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,15 +818,21 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -577,15 +841,21 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -594,15 +864,21 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -611,15 +887,21 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -628,15 +910,21 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -645,423 +933,764 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="3"/>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
       <c r="E16" s="3"/>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F23" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
       <c r="E24" s="3"/>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F25" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F26" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F27" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F30" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" s="2"/>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
       <c r="E32" s="3"/>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1"/>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
